--- a/LingyuZhou/FA24/shoeData/buyer scoring1.xlsx
+++ b/LingyuZhou/FA24/shoeData/buyer scoring1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stata\Indian suppliers\Lingyu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cdocuments\GitHub\factory_order_analysis\labor_audit\LingyuZhou\FA24\shoeData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7066F42-7887-4DAD-A614-06CF5C86C314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED99A310-8A75-490C-BA8A-C3F02C98ED17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="16395" windowHeight="10276" tabRatio="700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -694,6 +694,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1271,7 +1273,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1332,12 +1334,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" s="55" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="49"/>
-      <c r="B10" t="s">
+      <c r="B10" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="55" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1352,12 +1354,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" s="55" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="49"/>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="55" t="s">
         <v>43</v>
       </c>
     </row>

--- a/LingyuZhou/FA24/shoeData/buyer scoring1.xlsx
+++ b/LingyuZhou/FA24/shoeData/buyer scoring1.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cdocuments\GitHub\factory_order_analysis\labor_audit\LingyuZhou\FA24\shoeData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\labor_audit\LingyuZhou\FA24\shoeData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED99A310-8A75-490C-BA8A-C3F02C98ED17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6A094E-4185-4118-935D-4C47C48CD6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="16395" windowHeight="10276" tabRatio="700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="20666" windowHeight="12266" tabRatio="700" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="buyer scoring" sheetId="1" r:id="rId1"/>
     <sheet name="variable speci" sheetId="2" r:id="rId2"/>
     <sheet name="results table format" sheetId="3" r:id="rId3"/>
     <sheet name="sample results table" sheetId="4" r:id="rId4"/>
+    <sheet name="scoresCleaned" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="126">
   <si>
     <t>Buyers</t>
   </si>
@@ -215,15 +216,6 @@
     <t>control conveyors</t>
   </si>
   <si>
-    <t>avgprice (coefficient)</t>
-  </si>
-  <si>
-    <t>standard error (in parenthesis)</t>
-  </si>
-  <si>
-    <t>cus1price (coefficent)</t>
-  </si>
-  <si>
     <t>based on the extend month</t>
   </si>
   <si>
@@ -276,17 +268,181 @@
   </si>
   <si>
     <t>Note: OLS regression with standard error in parentheses. † p&lt;.10, * p&lt;.05, ** p&lt;.01, *** p&lt;.001</t>
+  </si>
+  <si>
+    <t>numstyles (changable)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>pschange</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>stylesch(changable)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>conveyor2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>conveyor3</t>
+  </si>
+  <si>
+    <t>conveyor4</t>
+  </si>
+  <si>
+    <t>conveyor5</t>
+  </si>
+  <si>
+    <t>conveyor6</t>
+  </si>
+  <si>
+    <t>conveyor7</t>
+  </si>
+  <si>
+    <t>conveyor8</t>
+  </si>
+  <si>
+    <t>conveyor9</t>
+  </si>
+  <si>
+    <t>conveyor10</t>
+  </si>
+  <si>
+    <t>conveyor11</t>
+  </si>
+  <si>
+    <t>conveyor12</t>
+  </si>
+  <si>
+    <t>conveyor13</t>
+  </si>
+  <si>
+    <t>conveyor14</t>
+  </si>
+  <si>
+    <t>conveyor15</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>coeff of ind. Vars. (std err)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>cus1price</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>avgprice</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Intercept)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0117(2242.8111)</t>
+  </si>
+  <si>
+    <t>0.1753(56.4222)</t>
+  </si>
+  <si>
+    <t>0.2870(62.3347)</t>
+  </si>
+  <si>
+    <t>0.1304(575.5283)</t>
+  </si>
+  <si>
+    <t>0.0722(320.3264)</t>
+  </si>
+  <si>
+    <t>0.8945(51.2876)</t>
+  </si>
+  <si>
+    <t>0.0467(0.9900)</t>
+  </si>
+  <si>
+    <t>0.4806(4.4769)</t>
+  </si>
+  <si>
+    <t>0.3432(6.5527)</t>
+  </si>
+  <si>
+    <t>0.0611(254.4245)</t>
+  </si>
+  <si>
+    <t>0.4074(271.5844)</t>
+  </si>
+  <si>
+    <t>0.1468(236.1442)</t>
+  </si>
+  <si>
+    <t>0.8332(249.1510)</t>
+  </si>
+  <si>
+    <t>0.9532(470.1734)</t>
+  </si>
+  <si>
+    <t>0.2108(293.5894)</t>
+  </si>
+  <si>
+    <t>0.1756(295.0171)</t>
+  </si>
+  <si>
+    <t>0.0084(341.2940)</t>
+  </si>
+  <si>
+    <t>0.0011(276.0804)</t>
+  </si>
+  <si>
+    <t>0.0103(284.8906)</t>
+  </si>
+  <si>
+    <t>0.0027(284.6851)</t>
+  </si>
+  <si>
+    <t>0.0000(294.9789)</t>
+  </si>
+  <si>
+    <t>0.0000(362.6410)</t>
+  </si>
+  <si>
+    <t>0.0000(326.1873)</t>
+  </si>
+  <si>
+    <t>buyer</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbordering</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbleadtime</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbpricing</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbpay</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -299,7 +455,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -313,21 +469,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF002060"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -356,8 +505,32 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +540,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -587,41 +766,46 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -685,20 +869,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -978,91 +1160,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="15.265625" customWidth="1"/>
-    <col min="6" max="6" width="12.53125" customWidth="1"/>
-    <col min="7" max="7" width="11.9296875" customWidth="1"/>
+    <col min="3" max="3" width="15.234375" customWidth="1"/>
+    <col min="6" max="6" width="12.52734375" customWidth="1"/>
+    <col min="7" max="7" width="11.9375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="34" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="37" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.35" x14ac:dyDescent="0.45">
+      <c r="A2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="48" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="46"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
+      <c r="J2" s="51"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.35" x14ac:dyDescent="0.45">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="47"/>
-    </row>
-    <row r="4" spans="1:10" ht="61.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="52"/>
+    </row>
+    <row r="4" spans="1:10" ht="61.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="48"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="31" t="s">
+      <c r="I4" s="50"/>
+      <c r="J4" s="53"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="3">
@@ -1091,8 +1273,8 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="32"/>
+    <row r="6" spans="1:10" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="37"/>
       <c r="B6" s="3">
         <v>2</v>
       </c>
@@ -1119,8 +1301,8 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="32"/>
+    <row r="7" spans="1:10" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="37"/>
       <c r="B7" s="3">
         <v>3</v>
       </c>
@@ -1147,8 +1329,8 @@
       </c>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="32"/>
+    <row r="8" spans="1:10" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="37"/>
       <c r="B8" s="3">
         <v>4</v>
       </c>
@@ -1175,8 +1357,8 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="32"/>
+    <row r="9" spans="1:10" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="37"/>
       <c r="B9" s="3">
         <v>5</v>
       </c>
@@ -1203,8 +1385,8 @@
       </c>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="33"/>
+    <row r="10" spans="1:10" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="38"/>
       <c r="B10" s="3">
         <v>6</v>
       </c>
@@ -1231,7 +1413,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.35" x14ac:dyDescent="0.45">
       <c r="F11" s="10" t="s">
         <v>27</v>
       </c>
@@ -1245,7 +1427,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" ht="15.35" x14ac:dyDescent="0.45">
       <c r="G12" s="9" t="s">
         <v>23</v>
       </c>
@@ -1263,6 +1445,7 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1272,13 +1455,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF5B40B-F849-4EF4-BB40-61708F728724}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.73046875" customWidth="1"/>
+    <col min="1" max="1" width="19.703125" customWidth="1"/>
+    <col min="2" max="2" width="8.9375" customWidth="1"/>
+    <col min="3" max="3" width="129.1171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
@@ -1298,7 +1483,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="54" t="s">
         <v>34</v>
       </c>
       <c r="B4" t="s">
@@ -1306,7 +1491,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="49"/>
+      <c r="A5" s="54"/>
       <c r="B5" t="s">
         <v>33</v>
       </c>
@@ -1315,36 +1500,36 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="49"/>
+      <c r="A6" s="54"/>
       <c r="B6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="49"/>
+      <c r="A7" s="54"/>
       <c r="B7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="54" t="s">
         <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="55" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="49"/>
-      <c r="B10" s="55" t="s">
+    <row r="10" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="54"/>
+      <c r="B10" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="30" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="54" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -1354,12 +1539,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="55" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="49"/>
-      <c r="B13" s="56" t="s">
+    <row r="13" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="54"/>
+      <c r="B13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="30" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1404,67 +1589,71 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A7"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B93AB9D-2B02-41BD-872E-0A4C820BF743}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.1328125" customWidth="1"/>
-    <col min="2" max="5" width="14.86328125" customWidth="1"/>
-    <col min="6" max="6" width="4.19921875" customWidth="1"/>
-    <col min="7" max="10" width="11.73046875" customWidth="1"/>
+    <col min="1" max="1" width="38.17578125" customWidth="1"/>
+    <col min="2" max="2" width="14.87890625" customWidth="1"/>
+    <col min="3" max="3" width="22.3515625" customWidth="1"/>
+    <col min="4" max="4" width="14.87890625" customWidth="1"/>
+    <col min="5" max="5" width="20.76171875" customWidth="1"/>
+    <col min="6" max="6" width="4.17578125" style="32" customWidth="1"/>
+    <col min="7" max="10" width="11.703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="G1" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="B1" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="G1" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="G2" s="51" t="s">
+      <c r="E2" s="55"/>
+      <c r="G2" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="51"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>54</v>
@@ -1491,34 +1680,231 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
+    <row r="4" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="16" t="s">
-        <v>59</v>
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="16" t="s">
-        <v>59</v>
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1530,6 +1916,7 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="G1:J1"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1542,1091 +1929,1091 @@
       <selection activeCell="A3" sqref="A3:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.9296875" customWidth="1"/>
-    <col min="2" max="3" width="11.06640625" customWidth="1"/>
-    <col min="4" max="5" width="11.06640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="23.9375" customWidth="1"/>
+    <col min="2" max="3" width="11.05859375" customWidth="1"/>
+    <col min="4" max="5" width="11.05859375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="10.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="18" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="16"/>
+      <c r="B2" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="58"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-    </row>
-    <row r="2" spans="1:7" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="17"/>
-      <c r="B2" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="53"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="19" t="str">
+      <c r="B3" s="18" t="str">
         <f>"0.344"</f>
         <v>0.344</v>
       </c>
-      <c r="C3" s="19" t="str">
+      <c r="C3" s="18" t="str">
         <f>"0.059"</f>
         <v>0.059</v>
       </c>
-      <c r="D3" s="19" t="str">
+      <c r="D3" s="18" t="str">
         <f>"0.241"</f>
         <v>0.241</v>
       </c>
-      <c r="E3" s="19" t="str">
+      <c r="E3" s="18" t="str">
         <f>"0.041"</f>
         <v>0.041</v>
       </c>
-      <c r="F3" s="19" t="str">
+      <c r="F3" s="18" t="str">
         <f>"0.001"</f>
         <v>0.001</v>
       </c>
-      <c r="G3" s="19" t="str">
+      <c r="G3" s="18" t="str">
         <f>"0.001"</f>
         <v>0.001</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="18" t="str">
+      <c r="A4" s="17" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="B4" s="19" t="str">
+      <c r="B4" s="18" t="str">
         <f>"(0.275)"</f>
         <v>(0.275)</v>
       </c>
-      <c r="C4" s="19" t="str">
+      <c r="C4" s="18" t="str">
         <f>"(0.190)"</f>
         <v>(0.190)</v>
       </c>
-      <c r="D4" s="19" t="str">
+      <c r="D4" s="18" t="str">
         <f>"(0.272)"</f>
         <v>(0.272)</v>
       </c>
-      <c r="E4" s="19" t="str">
+      <c r="E4" s="18" t="str">
         <f>"(0.185)"</f>
         <v>(0.185)</v>
       </c>
-      <c r="F4" s="19" t="str">
+      <c r="F4" s="18" t="str">
         <f>"(0.001)"</f>
         <v>(0.001)</v>
       </c>
-      <c r="G4" s="19" t="str">
+      <c r="G4" s="18" t="str">
         <f>"(0.001)"</f>
         <v>(0.001)</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="21" t="str">
+      <c r="A5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="20" t="str">
         <f>"43.920*"</f>
         <v>43.920*</v>
       </c>
-      <c r="C5" s="21" t="str">
+      <c r="C5" s="20" t="str">
         <f>"33.168*"</f>
         <v>33.168*</v>
       </c>
-      <c r="D5" s="19" t="str">
+      <c r="D5" s="18" t="str">
         <f>"28.027"</f>
         <v>28.027</v>
       </c>
-      <c r="E5" s="19" t="str">
+      <c r="E5" s="18" t="str">
         <f>"23.401"</f>
         <v>23.401</v>
       </c>
-      <c r="F5" s="19" t="str">
+      <c r="F5" s="18" t="str">
         <f>"-0.113"</f>
         <v>-0.113</v>
       </c>
-      <c r="G5" s="19" t="str">
+      <c r="G5" s="18" t="str">
         <f>"-0.144"</f>
         <v>-0.144</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="18" t="str">
+      <c r="A6" s="17" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="B6" s="19" t="str">
+      <c r="B6" s="18" t="str">
         <f>"(21.749)"</f>
         <v>(21.749)</v>
       </c>
-      <c r="C6" s="19" t="str">
+      <c r="C6" s="18" t="str">
         <f>"(15.034)"</f>
         <v>(15.034)</v>
       </c>
-      <c r="D6" s="19" t="str">
+      <c r="D6" s="18" t="str">
         <f>"(23.365)"</f>
         <v>(23.365)</v>
       </c>
-      <c r="E6" s="19" t="str">
+      <c r="E6" s="18" t="str">
         <f>"(15.857)"</f>
         <v>(15.857)</v>
       </c>
-      <c r="F6" s="19" t="str">
+      <c r="F6" s="18" t="str">
         <f>"(0.080)"</f>
         <v>(0.080)</v>
       </c>
-      <c r="G6" s="19" t="str">
+      <c r="G6" s="18" t="str">
         <f>"(0.083)"</f>
         <v>(0.083)</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="23" t="str">
+    <row r="7" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="22" t="str">
         <f>"0.209"</f>
         <v>0.209</v>
       </c>
-      <c r="C7" s="24" t="str">
+      <c r="C7" s="23" t="str">
         <f>"0.227†"</f>
         <v>0.227†</v>
       </c>
-      <c r="D7" s="23" t="str">
+      <c r="D7" s="22" t="str">
         <f>"0.199"</f>
         <v>0.199</v>
       </c>
-      <c r="E7" s="24" t="str">
+      <c r="E7" s="23" t="str">
         <f>"0.231†"</f>
         <v>0.231†</v>
       </c>
-      <c r="F7" s="23" t="str">
+      <c r="F7" s="22" t="str">
         <f>"-0.001"</f>
         <v>-0.001</v>
       </c>
-      <c r="G7" s="23" t="str">
+      <c r="G7" s="22" t="str">
         <f>"-0.001"</f>
         <v>-0.001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="18" t="str">
+      <c r="A8" s="17" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="B8" s="19" t="str">
+      <c r="B8" s="18" t="str">
         <f>"(0.175)"</f>
         <v>(0.175)</v>
       </c>
-      <c r="C8" s="19" t="str">
+      <c r="C8" s="18" t="str">
         <f>"(0.120)"</f>
         <v>(0.120)</v>
       </c>
-      <c r="D8" s="19" t="str">
+      <c r="D8" s="18" t="str">
         <f>"(0.176)"</f>
         <v>(0.176)</v>
       </c>
-      <c r="E8" s="19" t="str">
+      <c r="E8" s="18" t="str">
         <f>"(0.119)"</f>
         <v>(0.119)</v>
       </c>
-      <c r="F8" s="19" t="str">
+      <c r="F8" s="18" t="str">
         <f>"(0.001)"</f>
         <v>(0.001)</v>
       </c>
-      <c r="G8" s="19" t="str">
+      <c r="G8" s="18" t="str">
         <f>"(0.001)"</f>
         <v>(0.001)</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="19" t="str">
+      <c r="A9" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="18" t="str">
         <f>"0.017"</f>
         <v>0.017</v>
       </c>
-      <c r="C9" s="19" t="str">
+      <c r="C9" s="18" t="str">
         <f>"0.044"</f>
         <v>0.044</v>
       </c>
-      <c r="D9" s="19" t="str">
+      <c r="D9" s="18" t="str">
         <f>"0.039"</f>
         <v>0.039</v>
       </c>
-      <c r="E9" s="19" t="str">
+      <c r="E9" s="18" t="str">
         <f>"0.061"</f>
         <v>0.061</v>
       </c>
-      <c r="F9" s="19" t="str">
+      <c r="F9" s="18" t="str">
         <f>"0.000"</f>
         <v>0.000</v>
       </c>
-      <c r="G9" s="19" t="str">
+      <c r="G9" s="18" t="str">
         <f>"0.000"</f>
         <v>0.000</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="18" t="str">
+      <c r="A10" s="17" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="B10" s="19" t="str">
+      <c r="B10" s="18" t="str">
         <f>"(0.133)"</f>
         <v>(0.133)</v>
       </c>
-      <c r="C10" s="19" t="str">
+      <c r="C10" s="18" t="str">
         <f>"(0.091)"</f>
         <v>(0.091)</v>
       </c>
-      <c r="D10" s="19" t="str">
+      <c r="D10" s="18" t="str">
         <f>"(0.135)"</f>
         <v>(0.135)</v>
       </c>
-      <c r="E10" s="19" t="str">
+      <c r="E10" s="18" t="str">
         <f>"(0.091)"</f>
         <v>(0.091)</v>
       </c>
-      <c r="F10" s="19" t="str">
+      <c r="F10" s="18" t="str">
         <f>"(0.001)"</f>
         <v>(0.001)</v>
       </c>
-      <c r="G10" s="19" t="str">
+      <c r="G10" s="18" t="str">
         <f>"(0.001)"</f>
         <v>(0.001)</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="19" t="str">
+      <c r="A11" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="18" t="str">
         <f>"-41.697"</f>
         <v>-41.697</v>
       </c>
-      <c r="C11" s="19" t="str">
+      <c r="C11" s="18" t="str">
         <f>"-7.458"</f>
         <v>-7.458</v>
       </c>
-      <c r="D11" s="19" t="str">
+      <c r="D11" s="18" t="str">
         <f>"-73.533"</f>
         <v>-73.533</v>
       </c>
-      <c r="E11" s="19" t="str">
+      <c r="E11" s="18" t="str">
         <f>"-20.900"</f>
         <v>-20.900</v>
       </c>
-      <c r="F11" s="19" t="str">
+      <c r="F11" s="18" t="str">
         <f>"-0.767*"</f>
         <v>-0.767*</v>
       </c>
-      <c r="G11" s="19" t="str">
+      <c r="G11" s="18" t="str">
         <f>"-0.792*"</f>
         <v>-0.792*</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="18" t="str">
+      <c r="A12" s="17" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="B12" s="19" t="str">
+      <c r="B12" s="18" t="str">
         <f>"(81.678)"</f>
         <v>(81.678)</v>
       </c>
-      <c r="C12" s="19" t="str">
+      <c r="C12" s="18" t="str">
         <f>"(56.211)"</f>
         <v>(56.211)</v>
       </c>
-      <c r="D12" s="19" t="str">
+      <c r="D12" s="18" t="str">
         <f>"(82.409)"</f>
         <v>(82.409)</v>
       </c>
-      <c r="E12" s="19" t="str">
+      <c r="E12" s="18" t="str">
         <f>"(55.905)"</f>
         <v>(55.905)</v>
       </c>
-      <c r="F12" s="19" t="str">
+      <c r="F12" s="18" t="str">
         <f>"(0.357)"</f>
         <v>(0.357)</v>
       </c>
-      <c r="G12" s="19" t="str">
+      <c r="G12" s="18" t="str">
         <f>"(0.351)"</f>
         <v>(0.351)</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="24" t="str">
+    <row r="13" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="23" t="str">
         <f>"-10.312†"</f>
         <v>-10.312†</v>
       </c>
-      <c r="C13" s="23" t="str">
+      <c r="C13" s="22" t="str">
         <f>"-5.577"</f>
         <v>-5.577</v>
       </c>
-      <c r="D13" s="24" t="str">
+      <c r="D13" s="23" t="str">
         <f>"-11.764*"</f>
         <v>-11.764*</v>
       </c>
-      <c r="E13" s="24" t="str">
+      <c r="E13" s="23" t="str">
         <f>"-6.315†"</f>
         <v>-6.315†</v>
       </c>
-      <c r="F13" s="23" t="str">
+      <c r="F13" s="22" t="str">
         <f>"-0.033"</f>
         <v>-0.033</v>
       </c>
-      <c r="G13" s="23" t="str">
+      <c r="G13" s="22" t="str">
         <f>"-0.033"</f>
         <v>-0.033</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="18" t="str">
+      <c r="A14" s="17" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="B14" s="19" t="str">
+      <c r="B14" s="18" t="str">
         <f>"(5.311)"</f>
         <v>(5.311)</v>
       </c>
-      <c r="C14" s="19" t="str">
+      <c r="C14" s="18" t="str">
         <f>"(3.681)"</f>
         <v>(3.681)</v>
       </c>
-      <c r="D14" s="19" t="str">
+      <c r="D14" s="18" t="str">
         <f>"(5.375)"</f>
         <v>(5.375)</v>
       </c>
-      <c r="E14" s="19" t="str">
+      <c r="E14" s="18" t="str">
         <f>"(3.674)"</f>
         <v>(3.674)</v>
       </c>
-      <c r="F14" s="19" t="str">
+      <c r="F14" s="18" t="str">
         <f>"(0.022)"</f>
         <v>(0.022)</v>
       </c>
-      <c r="G14" s="19" t="str">
+      <c r="G14" s="18" t="str">
         <f>"(0.022)"</f>
         <v>(0.022)</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="24" t="str">
+    <row r="15" spans="1:7" ht="30.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="23" t="str">
         <f>"-7.577†"</f>
         <v>-7.577†</v>
       </c>
-      <c r="C15" s="26" t="str">
+      <c r="C15" s="25" t="str">
         <f>"-0.997"</f>
         <v>-0.997</v>
       </c>
-      <c r="D15" s="23" t="str">
+      <c r="D15" s="22" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="E15" s="23" t="str">
+      <c r="E15" s="22" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="F15" s="23" t="str">
+      <c r="F15" s="22" t="str">
         <f>"0.008"</f>
         <v>0.008</v>
       </c>
-      <c r="G15" s="23" t="str">
+      <c r="G15" s="22" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="18" t="str">
+      <c r="A16" s="17" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="B16" s="19" t="str">
+      <c r="B16" s="18" t="str">
         <f>"(3.895)"</f>
         <v>(3.895)</v>
       </c>
-      <c r="C16" s="19" t="str">
+      <c r="C16" s="18" t="str">
         <f>"(2.726)"</f>
         <v>(2.726)</v>
       </c>
-      <c r="D16" s="19" t="str">
+      <c r="D16" s="18" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="E16" s="19" t="str">
+      <c r="E16" s="18" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="F16" s="19" t="str">
+      <c r="F16" s="18" t="str">
         <f>"(0.015)"</f>
         <v>(0.015)</v>
       </c>
-      <c r="G16" s="19" t="str">
+      <c r="G16" s="18" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="19" t="str">
+      <c r="A17" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="18" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="C17" s="19" t="str">
+      <c r="C17" s="18" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="D17" s="23" t="str">
+      <c r="D17" s="22" t="str">
         <f>"2.962"</f>
         <v>2.962</v>
       </c>
-      <c r="E17" s="23" t="str">
+      <c r="E17" s="22" t="str">
         <f>"2.874"</f>
         <v>2.874</v>
       </c>
-      <c r="F17" s="19" t="str">
+      <c r="F17" s="18" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="G17" s="19" t="str">
+      <c r="G17" s="18" t="str">
         <f>"0.014"</f>
         <v>0.014</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="27"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="23" t="str">
+      <c r="A18" s="26"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="22" t="str">
         <f>"(2.791)"</f>
         <v>(2.791)</v>
       </c>
-      <c r="E18" s="23" t="str">
+      <c r="E18" s="22" t="str">
         <f>"(1.891)"</f>
         <v>(1.891)</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="18" t="str">
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="17" t="str">
         <f>"Workerworkdays"</f>
         <v>Workerworkdays</v>
       </c>
-      <c r="B19" s="19" t="str">
+      <c r="B19" s="18" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="C19" s="21" t="str">
+      <c r="C19" s="20" t="str">
         <f>"562.479***"</f>
         <v>562.479***</v>
       </c>
-      <c r="D19" s="19" t="str">
+      <c r="D19" s="18" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="E19" s="19" t="str">
+      <c r="E19" s="18" t="str">
         <f>"565.110***"</f>
         <v>565.110***</v>
       </c>
-      <c r="F19" s="19" t="str">
+      <c r="F19" s="18" t="str">
         <f>"-0.229"</f>
         <v>-0.229</v>
       </c>
-      <c r="G19" s="19" t="str">
+      <c r="G19" s="18" t="str">
         <f>"-0.245"</f>
         <v>-0.245</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="18" t="str">
+      <c r="A20" s="17" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="B20" s="19" t="str">
+      <c r="B20" s="18" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="C20" s="19" t="str">
+      <c r="C20" s="18" t="str">
         <f>"(42.788)"</f>
         <v>(42.788)</v>
       </c>
-      <c r="D20" s="19" t="str">
+      <c r="D20" s="18" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="E20" s="19" t="str">
+      <c r="E20" s="18" t="str">
         <f>"(41.759)"</f>
         <v>(41.759)</v>
       </c>
-      <c r="F20" s="19" t="str">
+      <c r="F20" s="18" t="str">
         <f>"(0.260)"</f>
         <v>(0.260)</v>
       </c>
-      <c r="G20" s="19" t="str">
+      <c r="G20" s="18" t="str">
         <f>"(0.255)"</f>
         <v>(0.255)</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="19" t="str">
+      <c r="A21" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="18" t="str">
         <f>"179.617"</f>
         <v>179.617</v>
       </c>
-      <c r="C21" s="19" t="str">
+      <c r="C21" s="18" t="str">
         <f>"-222.438"</f>
         <v>-222.438</v>
       </c>
-      <c r="D21" s="19" t="str">
+      <c r="D21" s="18" t="str">
         <f>"179.898"</f>
         <v>179.898</v>
       </c>
-      <c r="E21" s="19" t="str">
+      <c r="E21" s="18" t="str">
         <f>"-256.028"</f>
         <v>-256.028</v>
       </c>
-      <c r="F21" s="19" t="str">
+      <c r="F21" s="18" t="str">
         <f>"0.405"</f>
         <v>0.405</v>
       </c>
-      <c r="G21" s="19" t="str">
+      <c r="G21" s="18" t="str">
         <f>"0.222"</f>
         <v>0.222</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="18" t="str">
+      <c r="A22" s="17" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="B22" s="19" t="str">
+      <c r="B22" s="18" t="str">
         <f>"(261.445)"</f>
         <v>(261.445)</v>
       </c>
-      <c r="C22" s="19" t="str">
+      <c r="C22" s="18" t="str">
         <f>"(182.724)"</f>
         <v>(182.724)</v>
       </c>
-      <c r="D22" s="19" t="str">
+      <c r="D22" s="18" t="str">
         <f>"(265.222)"</f>
         <v>(265.222)</v>
       </c>
-      <c r="E22" s="19" t="str">
+      <c r="E22" s="18" t="str">
         <f>"(182.845)"</f>
         <v>(182.845)</v>
       </c>
-      <c r="F22" s="19" t="str">
+      <c r="F22" s="18" t="str">
         <f>"(1.063)"</f>
         <v>(1.063)</v>
       </c>
-      <c r="G22" s="19" t="str">
+      <c r="G22" s="18" t="str">
         <f>"(1.058)"</f>
         <v>(1.058)</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="19" t="str">
+      <c r="A23" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="18" t="str">
         <f>"103.302"</f>
         <v>103.302</v>
       </c>
-      <c r="C23" s="19" t="str">
+      <c r="C23" s="18" t="str">
         <f>"426.166*"</f>
         <v>426.166*</v>
       </c>
-      <c r="D23" s="19" t="str">
+      <c r="D23" s="18" t="str">
         <f>"-2.627"</f>
         <v>-2.627</v>
       </c>
-      <c r="E23" s="19" t="str">
+      <c r="E23" s="18" t="str">
         <f>"335.342"</f>
         <v>335.342</v>
       </c>
-      <c r="F23" s="19" t="str">
+      <c r="F23" s="18" t="str">
         <f>"1.013"</f>
         <v>1.013</v>
       </c>
-      <c r="G23" s="19" t="str">
+      <c r="G23" s="18" t="str">
         <f>"0.679"</f>
         <v>0.679</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="18" t="str">
+      <c r="A24" s="17" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="B24" s="19" t="str">
+      <c r="B24" s="18" t="str">
         <f>"(296.642)"</f>
         <v>(296.642)</v>
       </c>
-      <c r="C24" s="19" t="str">
+      <c r="C24" s="18" t="str">
         <f>"(205.878)"</f>
         <v>(205.878)</v>
       </c>
-      <c r="D24" s="19" t="str">
+      <c r="D24" s="18" t="str">
         <f>"(312.263)"</f>
         <v>(312.263)</v>
       </c>
-      <c r="E24" s="19" t="str">
+      <c r="E24" s="18" t="str">
         <f>"(213.056)"</f>
         <v>(213.056)</v>
       </c>
-      <c r="F24" s="19" t="str">
+      <c r="F24" s="18" t="str">
         <f>"(1.244)"</f>
         <v>(1.244)</v>
       </c>
-      <c r="G24" s="19" t="str">
+      <c r="G24" s="18" t="str">
         <f>"(1.252)"</f>
         <v>(1.252)</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="19" t="str">
+      <c r="A25" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="18" t="str">
         <f>"989.365***"</f>
         <v>989.365***</v>
       </c>
-      <c r="C25" s="19" t="str">
+      <c r="C25" s="18" t="str">
         <f>"172.301"</f>
         <v>172.301</v>
       </c>
-      <c r="D25" s="19" t="str">
+      <c r="D25" s="18" t="str">
         <f>"884.532**"</f>
         <v>884.532**</v>
       </c>
-      <c r="E25" s="19" t="str">
+      <c r="E25" s="18" t="str">
         <f>"132.590"</f>
         <v>132.590</v>
       </c>
-      <c r="F25" s="19" t="str">
+      <c r="F25" s="18" t="str">
         <f>"-1.257"</f>
         <v>-1.257</v>
       </c>
-      <c r="G25" s="19" t="str">
+      <c r="G25" s="18" t="str">
         <f>"-1.260"</f>
         <v>-1.260</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="28" t="str">
+      <c r="A26" s="27" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="B26" s="19" t="str">
+      <c r="B26" s="18" t="str">
         <f>"(263.579)"</f>
         <v>(263.579)</v>
       </c>
-      <c r="C26" s="19" t="str">
+      <c r="C26" s="18" t="str">
         <f>"(191.918)"</f>
         <v>(191.918)</v>
       </c>
-      <c r="D26" s="19" t="str">
+      <c r="D26" s="18" t="str">
         <f>"(264.193)"</f>
         <v>(264.193)</v>
       </c>
-      <c r="E26" s="19" t="str">
+      <c r="E26" s="18" t="str">
         <f>"(187.661)"</f>
         <v>(187.661)</v>
       </c>
-      <c r="F26" s="19" t="str">
+      <c r="F26" s="18" t="str">
         <f>"(1.013)"</f>
         <v>(1.013)</v>
       </c>
-      <c r="G26" s="19" t="str">
+      <c r="G26" s="18" t="str">
         <f>"(0.996)"</f>
         <v>(0.996)</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="28">
+      <c r="A27" s="27">
         <v>2019</v>
       </c>
-      <c r="B27" s="19" t="str">
+      <c r="B27" s="18" t="str">
         <f>"598.383**"</f>
         <v>598.383**</v>
       </c>
-      <c r="C27" s="19" t="str">
+      <c r="C27" s="18" t="str">
         <f>"643.045***"</f>
         <v>643.045***</v>
       </c>
-      <c r="D27" s="19" t="str">
+      <c r="D27" s="18" t="str">
         <f>"663.675**"</f>
         <v>663.675**</v>
       </c>
-      <c r="E27" s="19" t="str">
+      <c r="E27" s="18" t="str">
         <f>"683.759***"</f>
         <v>683.759***</v>
       </c>
-      <c r="F27" s="19" t="str">
+      <c r="F27" s="18" t="str">
         <f>"."</f>
         <v>.</v>
       </c>
-      <c r="G27" s="19" t="str">
+      <c r="G27" s="18" t="str">
         <f>"."</f>
         <v>.</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="28" t="str">
+      <c r="A28" s="27" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="B28" s="19" t="str">
+      <c r="B28" s="18" t="str">
         <f>"(217.177)"</f>
         <v>(217.177)</v>
       </c>
-      <c r="C28" s="19" t="str">
+      <c r="C28" s="18" t="str">
         <f>"(149.677)"</f>
         <v>(149.677)</v>
       </c>
-      <c r="D28" s="19" t="str">
+      <c r="D28" s="18" t="str">
         <f>"(221.747)"</f>
         <v>(221.747)</v>
       </c>
-      <c r="E28" s="19" t="str">
+      <c r="E28" s="18" t="str">
         <f>"(150.354)"</f>
         <v>(150.354)</v>
       </c>
-      <c r="F28" s="19" t="str">
+      <c r="F28" s="18" t="str">
         <f>"."</f>
         <v>.</v>
       </c>
-      <c r="G28" s="19" t="str">
+      <c r="G28" s="18" t="str">
         <f>"."</f>
         <v>.</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="28">
+      <c r="A29" s="27">
         <v>2020</v>
       </c>
-      <c r="B29" s="19" t="str">
+      <c r="B29" s="18" t="str">
         <f>"931.670***"</f>
         <v>931.670***</v>
       </c>
-      <c r="C29" s="19" t="str">
+      <c r="C29" s="18" t="str">
         <f>"767.184***"</f>
         <v>767.184***</v>
       </c>
-      <c r="D29" s="19" t="str">
+      <c r="D29" s="18" t="str">
         <f>"1039.177***"</f>
         <v>1039.177***</v>
       </c>
-      <c r="E29" s="19" t="str">
+      <c r="E29" s="18" t="str">
         <f>"793.225***"</f>
         <v>793.225***</v>
       </c>
-      <c r="F29" s="19" t="str">
+      <c r="F29" s="18" t="str">
         <f>"2.153**"</f>
         <v>2.153**</v>
       </c>
-      <c r="G29" s="19" t="str">
+      <c r="G29" s="18" t="str">
         <f>"2.026**"</f>
         <v>2.026**</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="28" t="str">
+      <c r="A30" s="27" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="B30" s="19" t="str">
+      <c r="B30" s="18" t="str">
         <f>"(235.411)"</f>
         <v>(235.411)</v>
       </c>
-      <c r="C30" s="19" t="str">
+      <c r="C30" s="18" t="str">
         <f>"(162.303)"</f>
         <v>(162.303)</v>
       </c>
-      <c r="D30" s="19" t="str">
+      <c r="D30" s="18" t="str">
         <f>"(233.061)"</f>
         <v>(233.061)</v>
       </c>
-      <c r="E30" s="19" t="str">
+      <c r="E30" s="18" t="str">
         <f>"(158.749)"</f>
         <v>(158.749)</v>
       </c>
-      <c r="F30" s="19" t="str">
+      <c r="F30" s="18" t="str">
         <f>"(0.764)"</f>
         <v>(0.764)</v>
       </c>
-      <c r="G30" s="19" t="str">
+      <c r="G30" s="18" t="str">
         <f>"(0.755)"</f>
         <v>(0.755)</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="28">
+      <c r="A31" s="27">
         <v>2021</v>
       </c>
-      <c r="B31" s="19" t="str">
+      <c r="B31" s="18" t="str">
         <f>"882.250**"</f>
         <v>882.250**</v>
       </c>
-      <c r="C31" s="19" t="str">
+      <c r="C31" s="18" t="str">
         <f>"1077.986***"</f>
         <v>1077.986***</v>
       </c>
-      <c r="D31" s="19" t="str">
+      <c r="D31" s="18" t="str">
         <f>"1060.215***"</f>
         <v>1060.215***</v>
       </c>
-      <c r="E31" s="19" t="str">
+      <c r="E31" s="18" t="str">
         <f>"1153.281***"</f>
         <v>1153.281***</v>
       </c>
-      <c r="F31" s="19" t="str">
+      <c r="F31" s="18" t="str">
         <f>"1.573"</f>
         <v>1.573</v>
       </c>
-      <c r="G31" s="19" t="str">
+      <c r="G31" s="18" t="str">
         <f>"1.629"</f>
         <v>1.629</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="28" t="str">
+      <c r="A32" s="27" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="B32" s="19" t="str">
+      <c r="B32" s="18" t="str">
         <f>"(284.107)"</f>
         <v>(284.107)</v>
       </c>
-      <c r="C32" s="19" t="str">
+      <c r="C32" s="18" t="str">
         <f>"(195.859)"</f>
         <v>(195.859)</v>
       </c>
-      <c r="D32" s="19" t="str">
+      <c r="D32" s="18" t="str">
         <f>"(286.096)"</f>
         <v>(286.096)</v>
       </c>
-      <c r="E32" s="19" t="str">
+      <c r="E32" s="18" t="str">
         <f>"(193.719)"</f>
         <v>(193.719)</v>
       </c>
-      <c r="F32" s="19" t="str">
+      <c r="F32" s="18" t="str">
         <f>"(0.874)"</f>
         <v>(0.874)</v>
       </c>
-      <c r="G32" s="19" t="str">
+      <c r="G32" s="18" t="str">
         <f>"(0.858)"</f>
         <v>(0.858)</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="28">
+      <c r="A33" s="27">
         <v>2022</v>
       </c>
-      <c r="B33" s="19" t="str">
+      <c r="B33" s="18" t="str">
         <f>"2535.131***"</f>
         <v>2535.131***</v>
       </c>
-      <c r="C33" s="19" t="str">
+      <c r="C33" s="18" t="str">
         <f>"2567.960***"</f>
         <v>2567.960***</v>
       </c>
-      <c r="D33" s="19" t="str">
+      <c r="D33" s="18" t="str">
         <f>"2861.185***"</f>
         <v>2861.185***</v>
       </c>
-      <c r="E33" s="19" t="str">
+      <c r="E33" s="18" t="str">
         <f>"2709.548***"</f>
         <v>2709.548***</v>
       </c>
-      <c r="F33" s="19" t="str">
+      <c r="F33" s="18" t="str">
         <f>"0.010"</f>
         <v>0.010</v>
       </c>
-      <c r="G33" s="19" t="str">
+      <c r="G33" s="18" t="str">
         <f>"0.242"</f>
         <v>0.242</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="18" t="str">
+      <c r="A34" s="17" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="B34" s="19" t="str">
+      <c r="B34" s="18" t="str">
         <f>"(399.064)"</f>
         <v>(399.064)</v>
       </c>
-      <c r="C34" s="19" t="str">
+      <c r="C34" s="18" t="str">
         <f>"(274.383)"</f>
         <v>(274.383)</v>
       </c>
-      <c r="D34" s="19" t="str">
+      <c r="D34" s="18" t="str">
         <f>"(403.981)"</f>
         <v>(403.981)</v>
       </c>
-      <c r="E34" s="19" t="str">
+      <c r="E34" s="18" t="str">
         <f>"(273.640)"</f>
         <v>(273.640)</v>
       </c>
-      <c r="F34" s="19" t="str">
+      <c r="F34" s="18" t="str">
         <f>"(1.248)"</f>
         <v>(1.248)</v>
       </c>
-      <c r="G34" s="19" t="str">
+      <c r="G34" s="18" t="str">
         <f>"(1.232)"</f>
         <v>(1.232)</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="18" t="str">
+      <c r="A35" s="17" t="str">
         <f>"_cons"</f>
         <v>_cons</v>
       </c>
-      <c r="B35" s="19" t="str">
+      <c r="B35" s="18" t="str">
         <f>"9657.562***"</f>
         <v>9657.562***</v>
       </c>
-      <c r="C35" s="19" t="str">
+      <c r="C35" s="18" t="str">
         <f>"-4694.530***"</f>
         <v>-4694.530***</v>
       </c>
-      <c r="D35" s="19" t="str">
+      <c r="D35" s="18" t="str">
         <f>"10128.114***"</f>
         <v>10128.114***</v>
       </c>
-      <c r="E35" s="19" t="str">
+      <c r="E35" s="18" t="str">
         <f>"-4547.230***"</f>
         <v>-4547.230***</v>
       </c>
-      <c r="F35" s="19" t="str">
+      <c r="F35" s="18" t="str">
         <f>"20.628**"</f>
         <v>20.628**</v>
       </c>
-      <c r="G35" s="19" t="str">
+      <c r="G35" s="18" t="str">
         <f>"21.469**"</f>
         <v>21.469**</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="18" t="str">
+      <c r="A36" s="17" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="B36" s="19" t="str">
+      <c r="B36" s="18" t="str">
         <f>"(710.571)"</f>
         <v>(710.571)</v>
       </c>
-      <c r="C36" s="19" t="str">
+      <c r="C36" s="18" t="str">
         <f>"(1196.061)"</f>
         <v>(1196.061)</v>
       </c>
-      <c r="D36" s="19" t="str">
+      <c r="D36" s="18" t="str">
         <f>"(722.261)"</f>
         <v>(722.261)</v>
       </c>
-      <c r="E36" s="19" t="str">
+      <c r="E36" s="18" t="str">
         <f>"(1189.463)"</f>
         <v>(1189.463)</v>
       </c>
-      <c r="F36" s="19" t="str">
+      <c r="F36" s="18" t="str">
         <f>"(7.228)"</f>
         <v>(7.228)</v>
       </c>
-      <c r="G36" s="19" t="str">
+      <c r="G36" s="18" t="str">
         <f>"(7.194)"</f>
         <v>(7.194)</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="18" t="str">
+      <c r="A37" s="17" t="str">
         <f>"N"</f>
         <v>N</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="18">
         <v>168</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="18">
         <v>167</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="18">
         <v>168</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="18">
         <v>167</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="18">
         <v>115</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="18">
         <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="30" t="str">
+      <c r="A38" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="29" t="str">
         <f>"0.525"</f>
         <v>0.525</v>
       </c>
-      <c r="C38" s="30" t="str">
+      <c r="C38" s="29" t="str">
         <f>"0.778"</f>
         <v>0.778</v>
       </c>
-      <c r="D38" s="30" t="str">
+      <c r="D38" s="29" t="str">
         <f>"0.517"</f>
         <v>0.517</v>
       </c>
-      <c r="E38" s="30" t="str">
+      <c r="E38" s="29" t="str">
         <f>"0.781"</f>
         <v>0.781</v>
       </c>
-      <c r="F38" s="30" t="str">
+      <c r="F38" s="29" t="str">
         <f>"0.255"</f>
         <v>0.255</v>
       </c>
-      <c r="G38" s="30" t="str">
+      <c r="G38" s="29" t="str">
         <f>"0.265"</f>
         <v>0.265</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
+      <c r="A39" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2635,6 +3022,145 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="A39:G39"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FE29D4-C68C-4DC3-B13D-6298E7A31CC6}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="5" width="9.703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>